--- a/tests/conf.example-2.xlsx
+++ b/tests/conf.example-2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18660" windowHeight="4700"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18660" windowHeight="4695"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -197,7 +197,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -220,24 +220,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -253,9 +240,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -545,19 +529,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.453125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="19.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="5">
         <v>0</v>
       </c>
@@ -571,26 +555,30 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="C2" s="6"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="7" t="s">
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="7"/>
+      <c r="B3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -599,44 +587,42 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="3" t="s">
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="7" t="s">
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -645,29 +631,27 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="7" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="3" t="s">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="3"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -675,10 +659,10 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
       <c r="D9" s="3"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -687,10 +671,10 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
       <c r="D10" s="3"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -699,10 +683,10 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
       <c r="D11" s="3"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -711,12 +695,12 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="7" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
       <c r="D12" s="3" t="s">
         <v>9</v>
       </c>
@@ -727,12 +711,12 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="7" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
       <c r="D13" s="3" t="s">
         <v>7</v>
       </c>
@@ -743,12 +727,12 @@
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" s="7" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
       <c r="D14" s="3" t="s">
         <v>11</v>
       </c>
@@ -759,22 +743,22 @@
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" s="7" t="s">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
       <c r="D15" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16" s="7" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
       <c r="D16" s="3">
         <v>1</v>
       </c>
@@ -785,12 +769,12 @@
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A17" s="7" t="s">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
       <c r="D17" s="3">
         <v>1</v>
       </c>
@@ -801,12 +785,12 @@
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A18" s="7" t="s">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
       <c r="D18" s="3" t="s">
         <v>3</v>
       </c>
@@ -817,12 +801,12 @@
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A19" s="7" t="s">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
       <c r="D19" s="3" t="s">
         <v>3</v>
       </c>
@@ -833,12 +817,12 @@
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A20" s="7" t="s">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
       <c r="D20" s="3" t="s">
         <v>4</v>
       </c>
@@ -849,12 +833,12 @@
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A21" s="7" t="s">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
@@ -865,12 +849,12 @@
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A22" s="7" t="s">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
       <c r="D22" s="3" t="s">
         <v>4</v>
       </c>
@@ -881,12 +865,12 @@
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A23" s="7" t="s">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
       <c r="D23" s="3" t="s">
         <v>4</v>
       </c>
@@ -897,12 +881,12 @@
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A24" s="7" t="s">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
       <c r="D24" s="3" t="s">
         <v>4</v>
       </c>
@@ -913,12 +897,12 @@
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A25" s="7" t="s">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
       <c r="D25" s="3"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -927,14 +911,14 @@
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A26" s="7" t="s">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="7"/>
+      <c r="C26" s="6"/>
       <c r="D26" s="3" t="s">
         <v>20</v>
       </c>
@@ -951,12 +935,12 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A27" s="7" t="s">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -965,14 +949,14 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A28" s="7" t="s">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="7"/>
+      <c r="C28" s="6"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -981,14 +965,14 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A29" s="7" t="s">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="7"/>
+      <c r="C29" s="6"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -997,14 +981,14 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A30" s="7" t="s">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C30" s="7"/>
+      <c r="C30" s="6"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -1013,14 +997,14 @@
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A31" s="7" t="s">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C31" s="7"/>
+      <c r="C31" s="6"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -1029,12 +1013,12 @@
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A32" s="7" t="s">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
       <c r="D32" s="3">
         <v>1</v>
       </c>
@@ -1045,14 +1029,14 @@
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A33" s="7" t="s">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C33" s="7"/>
+      <c r="C33" s="6"/>
       <c r="D33" s="3" t="s">
         <v>27</v>
       </c>
@@ -1063,12 +1047,12 @@
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A34" s="7" t="s">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
       <c r="D34" s="3" t="s">
         <v>27</v>
       </c>
@@ -1079,8 +1063,8 @@
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="E35" s="8"/>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E35" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
